--- a/工装治具/PCB/Connector/Project Outputs for LB1020B/BOM/Bill of Materials-ConnectorBoard.xlsx
+++ b/工装治具/PCB/Connector/Project Outputs for LB1020B/BOM/Bill of Materials-ConnectorBoard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ConnectorBoar" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Comment</t>
   </si>
@@ -65,9 +65,6 @@
     <t>HDR-IDC-2.54-2X8P</t>
   </si>
   <si>
-    <t>SMA-KHD18G，sma，正脚内孔</t>
-  </si>
-  <si>
     <t>SMA1, SMA2, SMA3, SMA4, SMA5, SMA6, SMA7, SMA8, SMA9, SMA10, SMA11, SMA12, SMA13, SMA14, SMA15, SMA16, SMA17, SMA18, SMA19, SMA20, SMA21, SMA22, SMA23, SMA24</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>HL-SMA-KHD4</t>
+  </si>
+  <si>
+    <t>LB1020B</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, U4, U5, U6, U7, U8, U9, U10, U11, U12, U13, U14, U15, U16, U17, U18, U19, U20, U21, U22, U23, U24</t>
   </si>
 </sst>
 </file>
@@ -87,16 +90,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -547,7 +543,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -565,13 +561,73 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,137 +749,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,32 +895,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,13 +1465,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="6" width="19.0277777777778" customWidth="1"/>
   </cols>
@@ -1422,43 +1496,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="174" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="208.8" spans="1:6">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13">
         <v>24</v>
       </c>
     </row>
